--- a/testData/sbiroi.xlsx
+++ b/testData/sbiroi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\eclipse-workspace\Opencart1.0\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970DFB75-B2F6-43BA-89AA-658FC6C7EF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC638EC5-44AF-4208-BC53-56E8EE0BE5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>https://www.facebook.com/profile.php?id=100079201300614</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>invalid</t>
+  </si>
+  <si>
+    <t>ghjui</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
